--- a/data/inflation_DK.xlsx
+++ b/data/inflation_DK.xlsx
@@ -962,7 +962,7 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
